--- a/biology/Médecine/Cytolyse_hépatique/Cytolyse_hépatique.xlsx
+++ b/biology/Médecine/Cytolyse_hépatique/Cytolyse_hépatique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cytolyse_h%C3%A9patique</t>
+          <t>Cytolyse_hépatique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La cytolyse hépatique est la destruction progressive des cellules du foie.
-Elle est révélée par l'augmentation d'enzymes qui montrent la destruction d'hépatocytes[1].
+Elle est révélée par l'augmentation d'enzymes qui montrent la destruction d'hépatocytes.
 Elle peut se manifester lors d'intoxications aiguës de celui-ci (ex : intoxication aux solvants chlorés), ou d'intoxications chroniques comme les cirrhoses induites par l'alcoolisme, ou encore lors d'attaques virales ou microbiennes.
 Elle peut aussi être induite par une grossesse, pour 1 cas sur 2000, se révélant quatre à six semaines avant le terme. Le déclenchement de l'accouchement permet d'arrêter la cytolyse lorsqu’une stabilisation par voie médicamenteuse n'est pas possible.
 </t>
